--- a/САВР/Лабораторные/lab1/lab1.xlsx
+++ b/САВР/Лабораторные/lab1/lab1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studies\САВР\Лабораторные\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF82B34-054C-4CF1-BA7C-A3CFA54A45BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0892D1EC-76CD-4428-A68C-3CA8C8EED9D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B34A62E-0FEB-48CD-A438-56CECE377F48}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>Год</t>
   </si>
@@ -711,47 +711,6 @@
   </si>
   <si>
     <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ʹ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> после объединения</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <u/>
@@ -1468,6 +1427,36 @@
         <charset val="204"/>
       </rPr>
       <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/h</t>
     </r>
   </si>
 </sst>
@@ -1689,7 +1678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1702,22 +1691,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1736,6 +1710,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1748,14 +1730,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3116,22 +3107,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>6.4285714285714306</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>8.5714285714285747</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>17.142857142857149</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>34.285714285714299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>12.857142857142861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3226,6 +3217,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="0"/>
+                  <a:t>m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="0" baseline="-25000"/>
+                  <a:t>i</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="0"/>
+                  <a:t>/h</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5316,15 +5370,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
+      <xdr:colOff>350520</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5351,13 +5405,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
@@ -5685,10 +5739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3542F555-57EE-498E-B731-F430DC5D4823}">
-  <dimension ref="A1:Y73"/>
+  <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5701,12 +5755,11 @@
     <col min="11" max="11" width="13.88671875" customWidth="1"/>
     <col min="13" max="13" width="9.77734375" customWidth="1"/>
     <col min="14" max="14" width="9.44140625" customWidth="1"/>
-    <col min="18" max="18" width="11.109375" customWidth="1"/>
-    <col min="19" max="19" width="11" customWidth="1"/>
-    <col min="22" max="22" width="33.5546875" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="21" max="21" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -5716,1147 +5769,1095 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="9" t="s">
+      <c r="J5" s="25"/>
+      <c r="K5" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="8" t="s">
+      <c r="M5" s="29"/>
+      <c r="N5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="S5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="V5" s="10" t="s">
+      <c r="U5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="W5" s="10">
+      <c r="V5" s="8">
         <f>COUNT(B9:B45)</f>
         <v>37</v>
       </c>
-      <c r="Y5" s="21" t="s">
+      <c r="X5" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="8"/>
-      <c r="V6" s="10" t="s">
+    <row r="6" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="27"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="U6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="W6" s="10">
+      <c r="V6" s="8">
         <f>C9</f>
         <v>6.4</v>
       </c>
-      <c r="Y6" s="20">
-        <f>(F9-W11)^2</f>
+      <c r="X6" s="15">
+        <f>(F9-V11)^2</f>
         <v>2.5255222790357919</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="8"/>
-      <c r="V7" s="10" t="s">
+    <row r="7" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="U7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="W7" s="10">
+      <c r="V7" s="8">
         <f>C45</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="Y7" s="20">
-        <f>(F10-W11)^2</f>
+      <c r="X7" s="15">
+        <f>(F10-V11)^2</f>
         <v>1.2600568135703263</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="14" t="s">
+    <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="27"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="14" t="s">
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="15" t="s">
+      <c r="K8" s="26"/>
+      <c r="L8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="8"/>
-      <c r="V8" s="10" t="s">
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="U8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="W8" s="10">
-        <f>W7-W6</f>
+      <c r="V8" s="8">
+        <f>V7-V6</f>
         <v>2.7999999999999989</v>
       </c>
-      <c r="Y8" s="20">
-        <f>(F11-W11)^2</f>
+      <c r="X8" s="15">
+        <f>(F11-V11)^2</f>
         <v>0.43014690366041652</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>1957</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>8.6</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>6.4</v>
       </c>
-      <c r="D9" s="10">
-        <f>W6</f>
+      <c r="D9" s="8">
+        <f>V6</f>
         <v>6.4</v>
       </c>
-      <c r="E9" s="10">
-        <f>D9+W10</f>
+      <c r="E9" s="8">
+        <f>D9+V10</f>
         <v>6.8666666666666671</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <f>AVERAGE(D9,E9)</f>
         <v>6.6333333333333337</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <f>COUNTIF(C9:C45, "&gt;="&amp;D9) - COUNTIF(C9:C45, "&gt;="&amp;E9)</f>
         <v>3</v>
       </c>
-      <c r="H9" s="10">
-        <f>G9/W5</f>
+      <c r="H9" s="8">
+        <f>G9/V5</f>
         <v>8.1081081081081086E-2</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="8">
         <f>D9</f>
         <v>6.4</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="8">
         <f>E10</f>
         <v>7.3333333333333339</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="8">
         <f>G9+G10</f>
         <v>3</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="10">
-        <f>(E9-W11)/W12</f>
-        <v>-2.1934208262208252</v>
-      </c>
-      <c r="N9" s="10">
+      <c r="M9" s="8">
+        <f>(J9-V11)/V12</f>
+        <v>-1.4384759837076104</v>
+      </c>
+      <c r="N9" s="8">
         <v>-0.5</v>
       </c>
-      <c r="O9" s="10">
-        <v>-0.48570000000000002</v>
-      </c>
-      <c r="P9" s="10">
+      <c r="O9" s="8">
+        <v>-0.42359999999999998</v>
+      </c>
+      <c r="P9" s="8">
         <f>O9-N9</f>
-        <v>1.4299999999999979E-2</v>
-      </c>
-      <c r="Q9" s="10">
-        <f>W5*P9</f>
-        <v>0.52909999999999924</v>
-      </c>
-      <c r="R9" s="10">
-        <f>Q9+Q10</f>
+        <v>7.6400000000000023E-2</v>
+      </c>
+      <c r="Q9" s="8">
+        <f>V5*P9</f>
         <v>2.8268000000000009</v>
       </c>
-      <c r="S9" s="10">
-        <f>(K9-R9)^2/R9</f>
+      <c r="R9" s="8">
+        <f>(K9-Q9)^2/Q9</f>
         <v>1.0612084335644437E-2</v>
       </c>
-      <c r="V9" s="10" t="s">
+      <c r="U9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="W9" s="10">
-        <f>1+INT(LOG(W5,2))</f>
+      <c r="V9" s="8">
+        <f>1+INT(LOG(V5,2))</f>
         <v>6</v>
       </c>
-      <c r="Y9" s="20">
-        <f>(F12-W11)^2</f>
+      <c r="X9" s="15">
+        <f>(F12-V11)^2</f>
         <v>3.5792549306062259E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>1958</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>8.5</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>6.4</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <f>E9</f>
         <v>6.8666666666666671</v>
       </c>
-      <c r="E10" s="10">
-        <f>D10+W10</f>
+      <c r="E10" s="8">
+        <f>D10+V10</f>
         <v>7.3333333333333339</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <f>AVERAGE(D10,E10)</f>
         <v>7.1000000000000005</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="8">
         <f>COUNTIF(C9:C45, "&gt;="&amp;D10) - COUNTIF(C9:C45, "&gt;="&amp;E10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="10">
-        <f>G10/W5</f>
+      <c r="H10" s="8">
+        <f>G10/V5</f>
         <v>0</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="8">
         <f>D11</f>
         <v>7.3333333333333339</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="8">
         <f>E11</f>
         <v>7.8000000000000007</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="8">
         <f>G11</f>
         <v>4</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="8">
         <f>M9</f>
-        <v>-2.1934208262208252</v>
-      </c>
-      <c r="M10" s="10">
-        <f>(E10-W11)/W12</f>
         <v>-1.4384759837076104</v>
       </c>
-      <c r="N10" s="10">
+      <c r="M10" s="8">
+        <f>(J10-V11)/V12</f>
+        <v>-0.68353114119439595</v>
+      </c>
+      <c r="N10" s="8">
         <f>O9</f>
-        <v>-0.48570000000000002</v>
-      </c>
-      <c r="O10" s="10">
         <v>-0.42359999999999998</v>
       </c>
-      <c r="P10" s="10">
-        <f t="shared" ref="P10:P14" si="0">O10-N10</f>
-        <v>6.2100000000000044E-2</v>
-      </c>
-      <c r="Q10" s="10">
-        <f>W5*P10</f>
-        <v>2.2977000000000016</v>
-      </c>
-      <c r="R10" s="10">
-        <f>Q11</f>
+      <c r="O10" s="8">
+        <v>-0.25169999999999998</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" ref="P10:P13" si="0">O10-N10</f>
+        <v>0.1719</v>
+      </c>
+      <c r="Q10" s="8">
+        <f>V5*P10</f>
         <v>6.3602999999999996</v>
       </c>
-      <c r="S10" s="10">
-        <f>(K10-R10)^2/R10</f>
+      <c r="R10" s="8">
+        <f>(K10-Q10)^2/Q10</f>
         <v>0.87590460984544727</v>
       </c>
-      <c r="V10" s="10" t="s">
+      <c r="U10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="W10" s="10">
-        <f>W8/W9</f>
+      <c r="V10" s="8">
+        <f>V8/V9</f>
         <v>0.46666666666666651</v>
       </c>
-      <c r="Y10" s="20">
-        <f>(F13-W11)^2</f>
+      <c r="X10" s="15">
+        <f>(F13-V11)^2</f>
         <v>7.6993750507263925E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+    <row r="11" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <v>1959</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>8.6</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>6.5</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <f>E10</f>
         <v>7.3333333333333339</v>
       </c>
-      <c r="E11" s="10">
-        <f>D11+W10</f>
+      <c r="E11" s="8">
+        <f>D11+V10</f>
         <v>7.8000000000000007</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <f t="shared" ref="F11:F14" si="1">AVERAGE(D11,E11)</f>
         <v>7.5666666666666673</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="8">
         <f>COUNTIF(C9:C45, "&gt;="&amp;D11) - COUNTIF(C9:C45, "&gt;="&amp;E11)</f>
         <v>4</v>
       </c>
-      <c r="H11" s="10">
-        <f>G11/W5</f>
+      <c r="H11" s="8">
+        <f>G11/V5</f>
         <v>0.10810810810810811</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="8">
         <f t="shared" ref="I11:I13" si="2">D12</f>
         <v>7.8000000000000007</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="8">
         <f t="shared" ref="J11:J13" si="3">E12</f>
         <v>8.2666666666666675</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="8">
         <f>G12</f>
         <v>8</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="8">
         <f>M10</f>
-        <v>-1.4384759837076104</v>
-      </c>
-      <c r="M11" s="10">
-        <f>(E11-W11)/W12</f>
         <v>-0.68353114119439595</v>
       </c>
-      <c r="N11" s="10">
+      <c r="M11" s="8">
+        <f>(J11-V11)/V12</f>
+        <v>7.1413701318818648E-2</v>
+      </c>
+      <c r="N11" s="8">
         <f>O10</f>
-        <v>-0.42359999999999998</v>
-      </c>
-      <c r="O11" s="10">
         <v>-0.25169999999999998</v>
       </c>
-      <c r="P11" s="10">
+      <c r="O11" s="8">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="P11" s="8">
         <f t="shared" si="0"/>
-        <v>0.1719</v>
-      </c>
-      <c r="Q11" s="10">
-        <f>W5*P11</f>
-        <v>6.3602999999999996</v>
-      </c>
-      <c r="R11" s="10">
-        <f t="shared" ref="R11:R13" si="4">Q12</f>
+        <v>0.27959999999999996</v>
+      </c>
+      <c r="Q11" s="8">
+        <f>V5*P11</f>
         <v>10.345199999999998</v>
       </c>
-      <c r="S11" s="10">
-        <f>(K11-R11)^2/R11</f>
+      <c r="R11" s="8">
+        <f t="shared" ref="R10:R13" si="4">(K11-Q11)^2/Q11</f>
         <v>0.53164395468429737</v>
       </c>
-      <c r="V11" s="10" t="s">
+      <c r="U11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="W11" s="10">
-        <f>SUMPRODUCT(G9:G14, F9:F14)/W5</f>
+      <c r="V11" s="8">
+        <f>SUMPRODUCT(G9:G14, F9:F14)/V5</f>
         <v>8.2225225225225227</v>
       </c>
-      <c r="Y11" s="20">
-        <f>(F14-W11)^2</f>
+      <c r="X11" s="15">
+        <f>(F14-V11)^2</f>
         <v>0.55375050726402331</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+    <row r="12" spans="1:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <v>1960</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>8.4</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>7.4</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <f>E11</f>
         <v>7.8000000000000007</v>
       </c>
-      <c r="E12" s="10">
-        <f>D12+W10</f>
+      <c r="E12" s="8">
+        <f>D12+V10</f>
         <v>8.2666666666666675</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <f t="shared" si="1"/>
         <v>8.033333333333335</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="8">
         <f>COUNTIF(C9:C45, "&gt;="&amp;D12) - COUNTIF(C9:C45, "&gt;="&amp;E12)</f>
         <v>8</v>
       </c>
-      <c r="H12" s="10">
-        <f>G12/W5</f>
+      <c r="H12" s="8">
+        <f>G12/V5</f>
         <v>0.21621621621621623</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="8">
         <f t="shared" si="2"/>
         <v>8.2666666666666675</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="8">
         <f t="shared" si="3"/>
         <v>8.7333333333333343</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="8">
         <f>G13</f>
         <v>16</v>
       </c>
-      <c r="L12" s="10">
-        <f t="shared" ref="L12:L14" si="5">M11</f>
-        <v>-0.68353114119439595</v>
-      </c>
-      <c r="M12" s="10">
-        <f>(E12-W11)/W12</f>
+      <c r="L12" s="8">
+        <f t="shared" ref="L12:L13" si="5">M11</f>
         <v>7.1413701318818648E-2</v>
       </c>
-      <c r="N12" s="10">
+      <c r="M12" s="8">
+        <f>(J12-V11)/V12</f>
+        <v>0.82635854383203322</v>
+      </c>
+      <c r="N12" s="8">
         <f>O11</f>
-        <v>-0.25169999999999998</v>
-      </c>
-      <c r="O12" s="10">
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="P12" s="10">
+      <c r="O12" s="8">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="P12" s="8">
         <f t="shared" si="0"/>
-        <v>0.27959999999999996</v>
-      </c>
-      <c r="Q12" s="10">
-        <f>W5*P12</f>
-        <v>10.345199999999998</v>
-      </c>
-      <c r="R12" s="10">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="Q12" s="8">
+        <f>V5*P12</f>
+        <v>9.8420000000000005</v>
+      </c>
+      <c r="R12" s="8">
         <f t="shared" si="4"/>
-        <v>9.8420000000000005</v>
-      </c>
-      <c r="S12" s="10">
-        <f>(K12-R12)^2/R12</f>
         <v>3.852973379394431</v>
       </c>
-      <c r="V12" s="22" t="s">
+      <c r="U12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="W12" s="24">
-        <f>SQRT(SUMPRODUCT(G9:G14, Y6:Y11)/W5)</f>
+      <c r="V12" s="23">
+        <f>SQRT(SUMPRODUCT(G9:G14, X6:X11)/V5)</f>
         <v>0.61814670474882838</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>1961</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>8.9</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>7.5</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <f>E12</f>
         <v>8.2666666666666675</v>
       </c>
-      <c r="E13" s="10">
-        <f>D13+W10</f>
+      <c r="E13" s="8">
+        <f>D13+V10</f>
         <v>8.7333333333333343</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="8">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="8">
         <f>COUNTIF(C9:C45, "&gt;="&amp;D13) - COUNTIF(C9:C45, "&gt;="&amp;E13)</f>
         <v>16</v>
       </c>
-      <c r="H13" s="10">
-        <f>G13/W5</f>
+      <c r="H13" s="8">
+        <f>G13/V5</f>
         <v>0.43243243243243246</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="8">
         <f t="shared" si="2"/>
         <v>8.7333333333333343</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="8">
         <f t="shared" si="3"/>
         <v>9.2000000000000011</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="8">
         <f>G14</f>
         <v>6</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="8">
         <f t="shared" si="5"/>
-        <v>7.1413701318818648E-2</v>
-      </c>
-      <c r="M13" s="10">
-        <f>(E13-W11)/W12</f>
         <v>0.82635854383203322</v>
       </c>
-      <c r="N13" s="10">
+      <c r="M13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="8">
         <f>O12</f>
-        <v>2.7900000000000001E-2</v>
-      </c>
-      <c r="O13" s="10">
         <v>0.29389999999999999</v>
       </c>
-      <c r="P13" s="10">
+      <c r="O13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="P13" s="8">
         <f t="shared" si="0"/>
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="Q13" s="10">
-        <f>W5*P13</f>
-        <v>9.8420000000000005</v>
-      </c>
-      <c r="R13" s="10">
+        <v>0.20610000000000001</v>
+      </c>
+      <c r="Q13" s="8">
+        <f>V5*P13</f>
+        <v>7.6257000000000001</v>
+      </c>
+      <c r="R13" s="8">
         <f t="shared" si="4"/>
-        <v>7.6257000000000001</v>
-      </c>
-      <c r="S13" s="10">
-        <f>(K13-R13)^2/R13</f>
         <v>0.34657808332349826</v>
       </c>
-      <c r="V13" s="23"/>
-      <c r="W13" s="25"/>
-    </row>
-    <row r="14" spans="1:25" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
+      <c r="U13" s="22"/>
+      <c r="V13" s="24"/>
+    </row>
+    <row r="14" spans="1:24" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
         <v>1962</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>8.5</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>7.6</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <f>E13</f>
         <v>8.7333333333333343</v>
       </c>
-      <c r="E14" s="10">
-        <f>D14+W10</f>
+      <c r="E14" s="8">
+        <f>D14+V10</f>
         <v>9.2000000000000011</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="8">
         <f t="shared" si="1"/>
         <v>8.9666666666666686</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="8">
         <f>COUNTIF(C9:C45, "&gt;="&amp;D14) - COUNTIF(C9:C45, "&gt;"&amp;E14)</f>
         <v>6</v>
       </c>
-      <c r="H14" s="10">
-        <f>G14/W5</f>
+      <c r="H14" s="8">
+        <f>G14/V5</f>
         <v>0.16216216216216217</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10">
-        <f t="shared" si="5"/>
-        <v>0.82635854383203322</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="N14" s="10">
-        <f>O13</f>
-        <v>0.29389999999999999</v>
-      </c>
-      <c r="O14" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="P14" s="10">
-        <f t="shared" si="0"/>
-        <v>0.20610000000000001</v>
-      </c>
-      <c r="Q14" s="10">
-        <f>W5*P14</f>
-        <v>7.6257000000000001</v>
-      </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="V14" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="W14" s="20">
-        <f>S15</f>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="U14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V14" s="15">
+        <f>R15</f>
         <v>5.6177121115833186</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+    <row r="15" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
         <v>1963</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>7.6</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="10">
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="8">
         <f>SUM(G9:G14)</f>
         <v>37</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="8">
         <f>SUM(H9:H14)</f>
         <v>1</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10">
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8">
         <f>SUM(K9:K13)</f>
         <v>37</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10">
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8">
         <f>SUM(P9:P14)</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="8">
         <f>SUM(Q9:Q14)</f>
         <v>37</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R15" s="8">
         <f>SUM(R9:R13)</f>
-        <v>37</v>
-      </c>
-      <c r="S15" s="10">
-        <f>SUM(S9:S13)</f>
         <v>5.6177121115833186</v>
       </c>
-      <c r="V15" s="10" t="s">
+      <c r="U15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V15" s="8">
+        <f>V9-3-1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>1964</v>
+      </c>
+      <c r="B16" s="8">
+        <v>9</v>
+      </c>
+      <c r="C16" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="U16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W15" s="10">
-        <f>W9-3-1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
-        <v>1964</v>
-      </c>
-      <c r="B16" s="10">
+      <c r="V16" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>1965</v>
+      </c>
+      <c r="B17" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="C17" s="8">
+        <v>8</v>
+      </c>
+      <c r="U17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="V17" s="8">
+        <f>CHIINV(V16, V15)</f>
+        <v>5.9914645471079817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>1966</v>
+      </c>
+      <c r="B18" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="C18" s="8">
+        <v>8</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="V18" s="8">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>1967</v>
+      </c>
+      <c r="B19" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="C19" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="U19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="V19" s="8">
+        <f>CHIINV(V18, V15)</f>
+        <v>7.8240460108562919</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>1968</v>
+      </c>
+      <c r="B20" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C20" s="8">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>1969</v>
+      </c>
+      <c r="B21" s="8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C21" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>1970</v>
+      </c>
+      <c r="B22" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C22" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>1971</v>
+      </c>
+      <c r="B23" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C23" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>1972</v>
+      </c>
+      <c r="B24" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C24" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>1973</v>
+      </c>
+      <c r="B25" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C25" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>1974</v>
+      </c>
+      <c r="B26" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="C26" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>1975</v>
+      </c>
+      <c r="B27" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="C27" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>1976</v>
+      </c>
+      <c r="B28" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="C28" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>1977</v>
+      </c>
+      <c r="B29" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="C29" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>1978</v>
+      </c>
+      <c r="B30" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C30" s="8">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>1979</v>
+      </c>
+      <c r="B31" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C31" s="8">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>1980</v>
+      </c>
+      <c r="B32" s="8">
         <v>9</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C32" s="8">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>1981</v>
+      </c>
+      <c r="B33" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C33" s="8">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>1982</v>
+      </c>
+      <c r="B34" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="C34" s="8">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>1983</v>
+      </c>
+      <c r="B35" s="8">
+        <v>9</v>
+      </c>
+      <c r="C35" s="8">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>1984</v>
+      </c>
+      <c r="B36" s="8">
+        <v>8</v>
+      </c>
+      <c r="C36" s="8">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>1985</v>
+      </c>
+      <c r="B37" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C37" s="8">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>1986</v>
+      </c>
+      <c r="B38" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C38" s="8">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>1987</v>
+      </c>
+      <c r="B39" s="8">
+        <v>8</v>
+      </c>
+      <c r="C39" s="8">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
+        <v>1988</v>
+      </c>
+      <c r="B40" s="8">
         <v>7.8</v>
       </c>
-      <c r="V16" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="W16" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
-        <v>1965</v>
-      </c>
-      <c r="B17" s="10">
-        <v>8.4</v>
-      </c>
-      <c r="C17" s="10">
-        <v>8</v>
-      </c>
-      <c r="V17" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="W17" s="10">
-        <f>CHIINV(W16, W15)</f>
-        <v>5.9914645471079817</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>1966</v>
-      </c>
-      <c r="B18" s="10">
-        <v>8.6</v>
-      </c>
-      <c r="C18" s="10">
-        <v>8</v>
-      </c>
-      <c r="V18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="W18" s="10">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
-        <v>1967</v>
-      </c>
-      <c r="B19" s="10">
-        <v>8.4</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="C40" s="8">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>1989</v>
+      </c>
+      <c r="B41" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C41" s="8">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
+        <v>1990</v>
+      </c>
+      <c r="B42" s="8">
         <v>8.1</v>
       </c>
-      <c r="V19" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="W19" s="10">
-        <f>CHIINV(W18, W15)</f>
-        <v>7.8240460108562919</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>1968</v>
-      </c>
-      <c r="B20" s="10">
-        <v>8.5</v>
-      </c>
-      <c r="C20" s="10">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>1969</v>
-      </c>
-      <c r="B21" s="10">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="C42" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
+        <v>1991</v>
+      </c>
+      <c r="B43" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="C43" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
+        <v>1992</v>
+      </c>
+      <c r="B44" s="8">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <v>1970</v>
-      </c>
-      <c r="B22" s="10">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C22" s="10">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
-        <v>1971</v>
-      </c>
-      <c r="B23" s="10">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C23" s="10">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
-        <v>1972</v>
-      </c>
-      <c r="B24" s="10">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C24" s="10">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
-        <v>1973</v>
-      </c>
-      <c r="B25" s="10">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C25" s="10">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
-        <v>1974</v>
-      </c>
-      <c r="B26" s="10">
-        <v>8.1</v>
-      </c>
-      <c r="C26" s="10">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
-        <v>1975</v>
-      </c>
-      <c r="B27" s="10">
-        <v>7.4</v>
-      </c>
-      <c r="C27" s="10">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
-        <v>1976</v>
-      </c>
-      <c r="B28" s="10">
+      <c r="C44" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>1993</v>
+      </c>
+      <c r="B45" s="8">
         <v>7.6</v>
       </c>
-      <c r="C28" s="10">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
-        <v>1977</v>
-      </c>
-      <c r="B29" s="10">
-        <v>6.4</v>
-      </c>
-      <c r="C29" s="10">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
-        <v>1978</v>
-      </c>
-      <c r="B30" s="10">
-        <v>6.5</v>
-      </c>
-      <c r="C30" s="10">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
-        <v>1979</v>
-      </c>
-      <c r="B31" s="10">
+      <c r="C45" s="8">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C31" s="10">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
-        <v>1980</v>
-      </c>
-      <c r="B32" s="10">
-        <v>9</v>
-      </c>
-      <c r="C32" s="10">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
-        <v>1981</v>
-      </c>
-      <c r="B33" s="10">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C33" s="10">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
-        <v>1982</v>
-      </c>
-      <c r="B34" s="10">
-        <v>6.4</v>
-      </c>
-      <c r="C34" s="10">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
-        <v>1983</v>
-      </c>
-      <c r="B35" s="10">
-        <v>9</v>
-      </c>
-      <c r="C35" s="10">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
-        <v>1984</v>
-      </c>
-      <c r="B36" s="10">
-        <v>8</v>
-      </c>
-      <c r="C36" s="10">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
-        <v>1985</v>
-      </c>
-      <c r="B37" s="10">
-        <v>8.5</v>
-      </c>
-      <c r="C37" s="10">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="10">
-        <v>1986</v>
-      </c>
-      <c r="B38" s="10">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C38" s="10">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
-        <v>1987</v>
-      </c>
-      <c r="B39" s="10">
-        <v>8</v>
-      </c>
-      <c r="C39" s="10">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="10">
-        <v>1988</v>
-      </c>
-      <c r="B40" s="10">
-        <v>7.8</v>
-      </c>
-      <c r="C40" s="10">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="10">
-        <v>1989</v>
-      </c>
-      <c r="B41" s="10">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C41" s="10">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="10">
-        <v>1990</v>
-      </c>
-      <c r="B42" s="10">
-        <v>8.1</v>
-      </c>
-      <c r="C42" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="10">
-        <v>1991</v>
-      </c>
-      <c r="B43" s="10">
-        <v>7.5</v>
-      </c>
-      <c r="C43" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="10">
-        <v>1992</v>
-      </c>
-      <c r="B44" s="10">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C44" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
-        <v>1993</v>
-      </c>
-      <c r="B45" s="10">
-        <v>7.6</v>
-      </c>
-      <c r="C45" s="10">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="7"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U66" s="6"/>
+      <c r="V66" s="7"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="M67" s="5"/>
     </row>
-    <row r="68" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M68" s="5"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M69" s="5"/>
+    </row>
+    <row r="70" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A70" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M68" s="5"/>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="M69" s="5"/>
-    </row>
-    <row r="70" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A70" s="28" t="s">
+      <c r="M70" s="5"/>
+    </row>
+    <row r="71" spans="1:22" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="A71" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="M70" s="5"/>
-    </row>
-    <row r="71" spans="1:23" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A71" s="29" t="s">
+      <c r="M71" s="5"/>
+    </row>
+    <row r="72" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A72" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M71" s="5"/>
-    </row>
-    <row r="72" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A72" s="28" t="s">
+      <c r="M72" s="5"/>
+    </row>
+    <row r="73" spans="1:22" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="A73" s="20" t="s">
         <v>56</v>
-      </c>
-      <c r="M72" s="5"/>
-    </row>
-    <row r="73" spans="1:23" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A73" s="29" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C9:C45">
     <sortCondition ref="C9"/>
   </sortState>
-  <mergeCells count="18">
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="D5:E7"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="F5:F8"/>
+  <mergeCells count="17">
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="L5:M7"/>
     <mergeCell ref="N5:N8"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="D5:E7"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="F5:F8"/>
     <mergeCell ref="O5:O8"/>
     <mergeCell ref="P5:P8"/>
     <mergeCell ref="Q5:Q8"/>
     <mergeCell ref="R5:R8"/>
-    <mergeCell ref="S5:S8"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="K5:K8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="M10:M13" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6865,561 +6866,561 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBE97F5-32B9-430E-B195-0DACE4DE65BB}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="17">
+      <c r="A3" s="29"/>
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="12">
         <v>2</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>1957</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>8.6</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>7.9</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>8.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>1958</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>8.5</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>8.4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <v>1959</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>8.6</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>8.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>1960</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>8.4</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>8.4</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>8.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="8">
         <v>1961</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>8.9</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>8.4</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <v>1962</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>8.5</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>7.9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="8">
         <v>1963</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>8.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>1964</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>9</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>9</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>9.1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <v>1965</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>8.4</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>9</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>8.9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="8">
         <v>1966</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>8.6</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>8.6</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>8.6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="8">
         <v>1967</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>8.4</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>7.9</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15" s="8">
         <v>1968</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>8.5</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>8.5</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="A16" s="8">
         <v>1969</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="8">
         <v>1970</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>7.9</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="A18" s="8">
         <v>1971</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="8">
         <v>7.8</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <v>7.8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="8">
         <v>1972</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="8">
         <v>8</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
         <v>8.1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="8">
         <v>1973</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="8">
         <v>7.7</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="8">
         <v>7.8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21" s="8">
         <v>1974</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <v>8.1</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="8">
         <v>7.8</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="A22" s="8">
         <v>1975</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="8">
         <v>7.4</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <v>7.2</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>7.3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="A23" s="8">
         <v>1976</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="8">
         <v>7.6</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="8">
         <v>7.2</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <v>7.2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+      <c r="A24" s="8">
         <v>1977</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="8">
         <v>6.4</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="8">
         <v>7.3</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>8.1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="A25" s="8">
         <v>1978</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="8">
         <v>6.5</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="8">
         <v>7.5</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="8">
         <v>8.9</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>1979</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="8">
         <v>7.9</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="8">
         <v>7.1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <v>1980</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>9</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <v>7.8</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>7.3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
+      <c r="A28" s="8">
         <v>1981</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="8">
         <v>6.3</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="8">
         <v>7.3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="A29" s="8">
         <v>1982</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="8">
         <v>6.4</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="8">
         <v>7.9</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="8">
         <v>7.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+      <c r="A30" s="8">
         <v>1983</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="8">
         <v>9</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="8">
         <v>9</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <v>7.9</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+      <c r="A31" s="8">
         <v>1984</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="8">
         <v>8</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="8">
         <v>7.4</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="8">
         <v>7.6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+      <c r="A32" s="8">
         <v>1985</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="8">
         <v>8.5</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="8">
         <v>7.9</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="8">
         <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+      <c r="A33" s="8">
         <v>1986</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="8">
         <v>8.4</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
+      <c r="A34" s="8">
         <v>1987</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="8">
         <v>8</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="8">
         <v>7.7</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>8.1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
+      <c r="A35" s="8">
         <v>1988</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="8">
         <v>7.8</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="8">
         <v>7.6</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="8">
         <v>7.8</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
+      <c r="A36" s="8">
         <v>1989</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="8">
         <v>7.9</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="8">
         <v>8.1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
+      <c r="A37" s="8">
         <v>1990</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="8">
         <v>8.1</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="8">
         <v>7.6</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="8">
         <v>7.7</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="10">
+      <c r="A38" s="8">
         <v>1991</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="8">
         <v>7.5</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="8">
         <v>7.6</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
+      <c r="A39" s="8">
         <v>1992</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="8">
         <v>7.9</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="8">
         <v>7.4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="10">
+      <c r="A40" s="8">
         <v>1993</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="8">
         <v>7.6</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="8">
         <v>7.6</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="8">
         <v>7.6</v>
       </c>
     </row>
@@ -7428,150 +7429,160 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="31"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="8">
+        <f>Report!G9/Report!V10</f>
+        <v>6.4285714285714306</v>
+      </c>
+      <c r="D45" s="30"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="8">
+        <f>Report!G10/Report!V10</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="30"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="8">
+        <f>Report!G11/Report!V10</f>
+        <v>8.5714285714285747</v>
+      </c>
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="8">
+        <f>Report!G12/Report!V10</f>
+        <v>17.142857142857149</v>
+      </c>
+      <c r="D48" s="30"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="8">
+        <f>Report!G13/Report!V10</f>
+        <v>34.285714285714299</v>
+      </c>
+      <c r="D49" s="30"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="8">
+        <f>Report!G14/Report!V10</f>
+        <v>12.857142857142861</v>
+      </c>
+      <c r="D50" s="30"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="30"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="10">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
+        <f>A56-(A57-A56)</f>
+        <v>6.1666660000000002</v>
+      </c>
+      <c r="B55" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>6.6333330000000004</v>
+      </c>
+      <c r="B56" s="8">
         <f>Report!G9</f>
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="10">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
+        <v>7.1000000000000005</v>
+      </c>
+      <c r="B57" s="8">
         <f>Report!G10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="10">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>7.5666669999999998</v>
+      </c>
+      <c r="B58" s="8">
         <f>Report!G11</f>
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="10">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>8.0333330000000007</v>
+      </c>
+      <c r="B59" s="8">
         <f>Report!G12</f>
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="10">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="B60" s="8">
         <f>Report!G13</f>
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="10">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
+        <v>8.9666669999999993</v>
+      </c>
+      <c r="B61" s="8">
         <f>Report!G14</f>
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="10">
-        <f>A56-(A57-A56)</f>
-        <v>6.1666660000000002</v>
-      </c>
-      <c r="B55" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="10">
-        <v>6.6333330000000004</v>
-      </c>
-      <c r="B56" s="10">
-        <f>Report!G9</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="10">
-        <v>7.1000000000000005</v>
-      </c>
-      <c r="B57" s="10">
-        <f>Report!G10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="10">
-        <v>7.5666669999999998</v>
-      </c>
-      <c r="B58" s="10">
-        <f>Report!G11</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="10">
-        <v>8.0333330000000007</v>
-      </c>
-      <c r="B59" s="10">
-        <f>Report!G12</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="10">
-        <v>8.5</v>
-      </c>
-      <c r="B60" s="10">
-        <f>Report!G13</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="10">
-        <v>8.9666669999999993</v>
-      </c>
-      <c r="B61" s="10">
-        <f>Report!G14</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="10">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
         <f>A61+(A61-A60)</f>
         <v>9.4333339999999986</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="8">
         <v>0</v>
       </c>
     </row>

--- a/САВР/Лабораторные/lab1/lab1.xlsx
+++ b/САВР/Лабораторные/lab1/lab1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studies\САВР\Лабораторные\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0892D1EC-76CD-4428-A68C-3CA8C8EED9D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FB0327-DC26-4AFA-AF25-7070AE01AD16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B34A62E-0FEB-48CD-A438-56CECE377F48}"/>
   </bookViews>

--- a/САВР/Лабораторные/lab1/lab1.xlsx
+++ b/САВР/Лабораторные/lab1/lab1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studies\САВР\Лабораторные\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FB0327-DC26-4AFA-AF25-7070AE01AD16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D137104C-025B-472D-BD7F-C873AB121BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B34A62E-0FEB-48CD-A438-56CECE377F48}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>Год</t>
   </si>
@@ -1135,138 +1135,6 @@
   </si>
   <si>
     <r>
-      <t>χ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>набл</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> &lt; χ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>кр</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(α</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>; k). В данном случае нет оснований отвергнуть гипотезу о нормальном распределении. Гипотеза H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> принимается для уровня значимости α</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Вывод для уровня значимости α</t>
     </r>
     <r>
@@ -1299,164 +1167,296 @@
   </si>
   <si>
     <r>
-      <t>χ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
-      </rPr>
-      <t>набл</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> &lt; χ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>кр</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(α</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>; k). В данном случае нет оснований отвергнуть гипотезу о нормальном распределении. Гипотеза H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> принимается для уровня значимости α</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>.</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/h</t>
     </r>
   </si>
   <si>
     <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>χ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/h</t>
+      </rPr>
+      <t>набл</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; χ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>кр</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(α</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>; k). В данном случае нет оснований отвергнуть гипотезу H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> о нормальном распределении. Т.е. генеральная совокупность имеет нормальное распределение для уровня значимости α</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>χ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>набл</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; χ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>кр</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(α</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>; k). В данном случае нет оснований отвергнуть гипотезу H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> о нормальном распределении. Т.е. генеральная совокупность имеет нормальное распределение для уровня значимости α</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
 </sst>
@@ -5741,8 +5741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3542F555-57EE-498E-B731-F430DC5D4823}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="Q69" sqref="Q69"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6405,13 +6405,17 @@
         <f>SUM(H9:H14)</f>
         <v>1</v>
       </c>
-      <c r="I15" s="8"/>
+      <c r="I15" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8">
         <f>SUM(K9:K13)</f>
         <v>37</v>
       </c>
-      <c r="L15" s="8"/>
+      <c r="L15" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
@@ -6817,19 +6821,19 @@
     </row>
     <row r="71" spans="1:22" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A71" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M71" s="5"/>
     </row>
     <row r="72" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A72" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M72" s="5"/>
     </row>
     <row r="73" spans="1:22" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A73" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -6866,8 +6870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBE97F5-32B9-430E-B195-0DACE4DE65BB}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7434,7 +7438,7 @@
         <v>26</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D44" s="31"/>
     </row>

--- a/САВР/Лабораторные/lab1/lab1.xlsx
+++ b/САВР/Лабораторные/lab1/lab1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studies\САВР\Лабораторные\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D137104C-025B-472D-BD7F-C873AB121BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777B161B-5266-40FA-8349-E0103105052D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B34A62E-0FEB-48CD-A438-56CECE377F48}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>Год</t>
   </si>
@@ -1303,7 +1303,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> о нормальном распределении. Т.е. генеральная совокупность имеет нормальное распределение для уровня значимости α</t>
+      <t xml:space="preserve"> о нормальном распределении генеральной совокупности для уровня значимости α</t>
     </r>
     <r>
       <rPr>
@@ -1435,7 +1435,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> о нормальном распределении. Т.е. генеральная совокупность имеет нормальное распределение для уровня значимости α</t>
+      <t xml:space="preserve"> о нормальном распределении генеральной совокупности для уровня значимости α</t>
     </r>
     <r>
       <rPr>
@@ -1458,6 +1458,9 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>Таким образом, для обоих уровней значимости различие между абсолютными и теоретическими частотами незначительно и может быть обусловлено случайными факторами.</t>
   </si>
 </sst>
 </file>
@@ -1718,6 +1721,23 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1730,23 +1750,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5739,10 +5742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3542F555-57EE-498E-B731-F430DC5D4823}">
-  <dimension ref="A1:X73"/>
+  <dimension ref="A1:X74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5781,52 +5784,52 @@
       <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="26" t="s">
+      <c r="J5" s="27"/>
+      <c r="K5" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="27" t="s">
+      <c r="M5" s="26"/>
+      <c r="N5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="P5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="Q5" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="R5" s="24" t="s">
         <v>45</v>
       </c>
       <c r="U5" s="8" t="s">
@@ -5841,24 +5844,24 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
       <c r="U6" s="8" t="s">
         <v>8</v>
       </c>
@@ -5872,24 +5875,24 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
       <c r="U7" s="8" t="s">
         <v>9</v>
       </c>
@@ -5903,36 +5906,36 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="26"/>
+      <c r="K8" s="24"/>
       <c r="L8" s="10" t="s">
         <v>35</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
       <c r="U8" s="8" t="s">
         <v>10</v>
       </c>
@@ -6171,7 +6174,7 @@
         <v>10.345199999999998</v>
       </c>
       <c r="R11" s="8">
-        <f t="shared" ref="R10:R13" si="4">(K11-Q11)^2/Q11</f>
+        <f t="shared" ref="R11:R13" si="4">(K11-Q11)^2/Q11</f>
         <v>0.53164395468429737</v>
       </c>
       <c r="U11" s="8" t="s">
@@ -6255,10 +6258,10 @@
         <f t="shared" si="4"/>
         <v>3.852973379394431</v>
       </c>
-      <c r="U12" s="21" t="s">
+      <c r="U12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="V12" s="23">
+      <c r="V12" s="30">
         <f>SQRT(SUMPRODUCT(G9:G14, X6:X11)/V5)</f>
         <v>0.61814670474882838</v>
       </c>
@@ -6331,8 +6334,8 @@
         <f t="shared" si="4"/>
         <v>0.34657808332349826</v>
       </c>
-      <c r="U13" s="22"/>
-      <c r="V13" s="24"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="31"/>
     </row>
     <row r="14" spans="1:24" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
@@ -6405,17 +6408,13 @@
         <f>SUM(H9:H14)</f>
         <v>1</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="I15" s="12"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8">
         <f>SUM(K9:K13)</f>
         <v>37</v>
       </c>
-      <c r="L15" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="L15" s="12"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
@@ -6836,18 +6835,16 @@
         <v>57</v>
       </c>
     </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C9:C45">
     <sortCondition ref="C9"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="L5:M7"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="K5:K8"/>
     <mergeCell ref="U12:U13"/>
     <mergeCell ref="V12:V13"/>
     <mergeCell ref="D5:E7"/>
@@ -6858,10 +6855,20 @@
     <mergeCell ref="P5:P8"/>
     <mergeCell ref="Q5:Q8"/>
     <mergeCell ref="R5:R8"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="L5:M7"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="K5:K8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="M10:M12" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6881,25 +6888,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="12">
         <v>1</v>
       </c>
@@ -7440,7 +7447,7 @@
       <c r="B44" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="31"/>
+      <c r="D44" s="22"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
@@ -7450,7 +7457,7 @@
         <f>Report!G9/Report!V10</f>
         <v>6.4285714285714306</v>
       </c>
-      <c r="D45" s="30"/>
+      <c r="D45" s="21"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
@@ -7460,7 +7467,7 @@
         <f>Report!G10/Report!V10</f>
         <v>0</v>
       </c>
-      <c r="D46" s="30"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
@@ -7470,7 +7477,7 @@
         <f>Report!G11/Report!V10</f>
         <v>8.5714285714285747</v>
       </c>
-      <c r="D47" s="30"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
@@ -7480,7 +7487,7 @@
         <f>Report!G12/Report!V10</f>
         <v>17.142857142857149</v>
       </c>
-      <c r="D48" s="30"/>
+      <c r="D48" s="21"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
@@ -7490,7 +7497,7 @@
         <f>Report!G13/Report!V10</f>
         <v>34.285714285714299</v>
       </c>
-      <c r="D49" s="30"/>
+      <c r="D49" s="21"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
@@ -7500,10 +7507,10 @@
         <f>Report!G14/Report!V10</f>
         <v>12.857142857142861</v>
       </c>
-      <c r="D50" s="30"/>
+      <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D51" s="30"/>
+      <c r="D51" s="21"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
